--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics\AAAA -Power BI\NAGA\Quality Dashboard in Power BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics\AAAA -Power BI\PK\Quality Dashboard in Power BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Quality Data" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Quality Data'!$A$1:$G$2197</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -101,9 +100,6 @@
     <t>Jack</t>
   </si>
   <si>
-    <t>Fatel Errors</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
@@ -126,6 +122,9 @@
   </si>
   <si>
     <t>Noel</t>
+  </si>
+  <si>
+    <t>Fatal Errors</t>
   </si>
 </sst>
 </file>
@@ -483,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2710"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -52579,7 +52578,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52615,7 +52614,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -52629,7 +52628,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -52643,7 +52642,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -52657,7 +52656,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -52671,7 +52670,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -52685,7 +52684,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -52699,7 +52698,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -52713,7 +52712,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -52727,7 +52726,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -52739,7 +52738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -52754,7 +52753,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -52762,7 +52761,7 @@
         <v>20001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -52770,7 +52769,7 @@
         <v>20002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -52778,7 +52777,7 @@
         <v>20003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
